--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lgi2-Adam11.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H2">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I2">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J2">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N2">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O2">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P2">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q2">
-        <v>0.01354860299133333</v>
+        <v>0.0003210108326666667</v>
       </c>
       <c r="R2">
-        <v>0.121937426922</v>
+        <v>0.002889097494</v>
       </c>
       <c r="S2">
-        <v>0.0006957437030558739</v>
+        <v>9.72448930661183E-06</v>
       </c>
       <c r="T2">
-        <v>0.0006957437030558741</v>
+        <v>9.724489306611832E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H3">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I3">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J3">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.876414</v>
       </c>
       <c r="O3">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P3">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q3">
-        <v>0.03470735771066667</v>
+        <v>0.001009434169333333</v>
       </c>
       <c r="R3">
-        <v>0.312366219396</v>
+        <v>0.009084907524000001</v>
       </c>
       <c r="S3">
-        <v>0.001782281582267227</v>
+        <v>3.057912938285057E-05</v>
       </c>
       <c r="T3">
-        <v>0.001782281582267228</v>
+        <v>3.057912938285058E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1188046666666667</v>
+        <v>0.003455333333333333</v>
       </c>
       <c r="H4">
-        <v>0.356414</v>
+        <v>0.010366</v>
       </c>
       <c r="I4">
-        <v>0.00979853232878679</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="J4">
-        <v>0.009798532328786792</v>
+        <v>0.000270121469710956</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N4">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O4">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P4">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q4">
-        <v>0.1425562936344444</v>
+        <v>0.007586415840666666</v>
       </c>
       <c r="R4">
-        <v>1.28300664271</v>
+        <v>0.068277742566</v>
       </c>
       <c r="S4">
-        <v>0.007320507043463688</v>
+        <v>0.0002298178510214935</v>
       </c>
       <c r="T4">
-        <v>0.007320507043463691</v>
+        <v>0.0002298178510214936</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I5">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J5">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N5">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O5">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P5">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q5">
-        <v>1.311730487111</v>
+        <v>1.068595482713</v>
       </c>
       <c r="R5">
-        <v>11.805574383999</v>
+        <v>9.617359344416998</v>
       </c>
       <c r="S5">
-        <v>0.06735958143416522</v>
+        <v>0.03237132298126124</v>
       </c>
       <c r="T5">
-        <v>0.06735958143416525</v>
+        <v>0.03237132298126125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I6">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J6">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.876414</v>
       </c>
       <c r="O6">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P6">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q6">
         <v>3.360250445398</v>
@@ -818,10 +818,10 @@
         <v>30.24225400858199</v>
       </c>
       <c r="S6">
-        <v>0.1725545496883942</v>
+        <v>0.1017931988536398</v>
       </c>
       <c r="T6">
-        <v>0.1725545496883942</v>
+        <v>0.1017931988536398</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>34.50681299999999</v>
       </c>
       <c r="I7">
-        <v>0.9486611714015168</v>
+        <v>0.8991926531546518</v>
       </c>
       <c r="J7">
-        <v>0.948661171401517</v>
+        <v>0.8991926531546519</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N7">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O7">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P7">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q7">
-        <v>13.80182418877166</v>
+        <v>25.254006632657</v>
       </c>
       <c r="R7">
-        <v>124.216417698945</v>
+        <v>227.286059693913</v>
       </c>
       <c r="S7">
-        <v>0.7087470402789574</v>
+        <v>0.7650281313197507</v>
       </c>
       <c r="T7">
-        <v>0.7087470402789575</v>
+        <v>0.7650281313197509</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H8">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I8">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J8">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.114041</v>
+        <v>0.092903</v>
       </c>
       <c r="N8">
-        <v>0.342123</v>
+        <v>0.278709</v>
       </c>
       <c r="O8">
-        <v>0.07100488927427132</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="P8">
-        <v>0.07100488927427133</v>
+        <v>0.03600043090620505</v>
       </c>
       <c r="Q8">
-        <v>0.05743849827866666</v>
+        <v>0.1194778721823333</v>
       </c>
       <c r="R8">
-        <v>0.5169464845080001</v>
+        <v>1.075300849641</v>
       </c>
       <c r="S8">
-        <v>0.002949564137050208</v>
+        <v>0.003619383435637192</v>
       </c>
       <c r="T8">
-        <v>0.00294956413705021</v>
+        <v>0.003619383435637192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H9">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I9">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J9">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.876414</v>
       </c>
       <c r="O9">
-        <v>0.181892708261126</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="P9">
-        <v>0.1818927082611261</v>
+        <v>0.1132051051535142</v>
       </c>
       <c r="Q9">
-        <v>0.1471397831493333</v>
+        <v>0.3757039775206667</v>
       </c>
       <c r="R9">
-        <v>1.324258048344</v>
+        <v>3.381335797686</v>
       </c>
       <c r="S9">
-        <v>0.007555876990464602</v>
+        <v>0.01138132717049157</v>
       </c>
       <c r="T9">
-        <v>0.007555876990464607</v>
+        <v>0.01138132717049157</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5036653333333333</v>
+        <v>1.286049666666667</v>
       </c>
       <c r="H10">
-        <v>1.510996</v>
+        <v>3.858149</v>
       </c>
       <c r="I10">
-        <v>0.04154029626969626</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="J10">
-        <v>0.04154029626969627</v>
+        <v>0.1005372253756372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.199921666666667</v>
+        <v>2.195567</v>
       </c>
       <c r="N10">
-        <v>3.599765</v>
+        <v>6.586701</v>
       </c>
       <c r="O10">
-        <v>0.7471024024646026</v>
+        <v>0.8507944639402807</v>
       </c>
       <c r="P10">
-        <v>0.7471024024646027</v>
+        <v>0.8507944639402808</v>
       </c>
       <c r="Q10">
-        <v>0.6043589462155554</v>
+        <v>2.823608208494333</v>
       </c>
       <c r="R10">
-        <v>5.439230515939999</v>
+        <v>25.412473876449</v>
       </c>
       <c r="S10">
-        <v>0.03103485514218144</v>
+        <v>0.08553651476950844</v>
       </c>
       <c r="T10">
-        <v>0.03103485514218146</v>
+        <v>0.08553651476950845</v>
       </c>
     </row>
   </sheetData>
